--- a/static/excel_template/fellowship.xlsx
+++ b/static/excel_template/fellowship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ernes\OneDrive\Desktop\GNAAS PROJECT\static\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEAF619-F960-4C9A-BAC5-16C25A9E73A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF774659-46AD-413C-817E-F48AEE323F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D32F226F-EB84-4181-A3EA-729CF631E7AC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ACADEMIC_YEAR</t>
   </si>
@@ -83,34 +83,7 @@
     <t>CHAPLAIN_OR_PATRON_CONTACT</t>
   </si>
   <si>
-    <t>UMAT</t>
-  </si>
-  <si>
-    <t>UNIVERSITY</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>TARKWA</t>
-  </si>
-  <si>
-    <t>SGUC</t>
-  </si>
-  <si>
-    <t>TARKW</t>
-  </si>
-  <si>
-    <t>AMA</t>
-  </si>
-  <si>
-    <t>KOFI</t>
-  </si>
-  <si>
-    <t>HFJDNJG</t>
-  </si>
-  <si>
-    <t>BFHDB</t>
+    <t>DIGITAL_ADDRESS</t>
   </si>
 </sst>
 </file>
@@ -503,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4B2A248-DBDD-4946-A573-DAA2EC3152AA}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -515,19 +488,20 @@
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -541,87 +515,54 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>400</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2">
-        <v>85439</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2">
-        <v>2334</v>
-      </c>
-      <c r="L2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2">
-        <v>57656</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2">
-        <v>4656</v>
-      </c>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="SORRY, YOU CAN ONLY CHOOSE FROM THE LIST BELOW" promptTitle="CHOOSE YOUR FELLOWSHIP TYPE" prompt="FROM BELOW" sqref="B2:B253" xr:uid="{9C6AC738-09F7-4074-856C-3A9A3D4B1361}">
+      <formula1>"University, Teacher Training College, Nursing Training College, Secondary"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="SORRY, YOU CAN ONLY CHOOSE FROM BELOW" promptTitle="CHOOSE YOUR ACADEMIC YEAR " prompt="FROM BELOW" sqref="C2:C246" xr:uid="{EF4A9D91-9CB4-497B-88F2-5C37A817E796}">
+      <formula1>"2023"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
